--- a/data/trans_bre/P19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.24518959524382</v>
+        <v>-9.758566497801862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.12687563269352</v>
+        <v>-11.02134739153925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.77421686998813</v>
+        <v>-10.24550594951897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.89656733548516</v>
+        <v>-15.03563169292913</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2573539986709283</v>
+        <v>-0.2471030498671953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3061110135945113</v>
+        <v>-0.2919890080184773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3297407319784453</v>
+        <v>-0.317795282592337</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.573149064293464</v>
+        <v>-0.5448384361967036</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.438866651630811</v>
+        <v>3.598914879413088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.591635390154966</v>
+        <v>2.690668628992926</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.130333259278838</v>
+        <v>2.923431188114543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.316419841870279</v>
+        <v>3.302136583605775</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1075199907450913</v>
+        <v>0.1131355741189469</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08586854278503565</v>
+        <v>0.09457632274435818</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08455272433316528</v>
+        <v>0.1138869966714265</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.189450641243605</v>
+        <v>0.2095597250827976</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.865679136346378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.981095550658601</v>
+        <v>-1.981095550658596</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.009145282793377525</v>
@@ -749,7 +749,7 @@
         <v>-0.1135924887311599</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08980760459337674</v>
+        <v>-0.08980760459337649</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.447271758364407</v>
+        <v>-6.348656636598099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.254947233940679</v>
+        <v>-5.21307015268054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-9.538287642086297</v>
+        <v>-9.530951586054789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.262906188996315</v>
+        <v>-8.340656799478682</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1477567425348851</v>
+        <v>-0.1490226511079913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1723354058010501</v>
+        <v>-0.1444426312414513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2579481065981161</v>
+        <v>-0.2589570700471021</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.322892275328342</v>
+        <v>-0.331413418247234</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.583908809445091</v>
+        <v>5.644500640142721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.215838720764374</v>
+        <v>5.88590025536762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.253617889359534</v>
+        <v>2.580391277210753</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.833059656980875</v>
+        <v>4.362357311590726</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1455913396592776</v>
+        <v>0.153170085132429</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1603724305344845</v>
+        <v>0.1825407505762326</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08227711845653561</v>
+        <v>0.08284075599002227</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2103439381617393</v>
+        <v>0.2418767354658869</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.500389782455998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3634498521602608</v>
+        <v>0.3634498521602553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.03702810831145528</v>
@@ -849,7 +849,7 @@
         <v>-0.1042044867515027</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.01697202604668115</v>
+        <v>0.01697202604668088</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.912260131178854</v>
+        <v>-7.329073175601286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.770712550228662</v>
+        <v>-3.7286503142026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.185702068006009</v>
+        <v>-9.843160679611087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.217019926000595</v>
+        <v>-4.504894886390323</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1659622796596177</v>
+        <v>-0.1714541116112368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09915316430783455</v>
+        <v>-0.09947612742987144</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2517358260971752</v>
+        <v>-0.2614507210132219</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1804450965919619</v>
+        <v>-0.1818520541232589</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.106842757600418</v>
+        <v>4.793508748416356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.356550965275009</v>
+        <v>7.928895169136718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.161981780471241</v>
+        <v>1.836690035598881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.567590332726488</v>
+        <v>5.050089391729842</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1476017600110663</v>
+        <v>0.1415793687252645</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2386611088870771</v>
+        <v>0.2626595344665873</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03700934736892881</v>
+        <v>0.05884398857691885</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2421096537752789</v>
+        <v>0.2782512144526896</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.590919613469308</v>
+        <v>-7.351486038304221</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.348480758307934</v>
+        <v>-8.723548264137742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.999655419227296</v>
+        <v>-4.612549833956449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.031661762601194</v>
+        <v>-5.085087858196049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1908797596538508</v>
+        <v>-0.1908611796825052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2321879404696274</v>
+        <v>-0.2395185273993355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.136841297029747</v>
+        <v>-0.1501035841844244</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2032197565426121</v>
+        <v>-0.2044413895808497</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.239810823032029</v>
+        <v>6.023022695149356</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.278807139688687</v>
+        <v>3.180723340906542</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.001534060619576</v>
+        <v>7.03705893673604</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.01075242778949</v>
+        <v>2.993518942716062</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2012883692782026</v>
+        <v>0.1926820243975299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1059870651755317</v>
+        <v>0.1048322933213692</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2826311370104325</v>
+        <v>0.2859396919887387</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1622792477729769</v>
+        <v>0.1576140037406574</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.761459378095294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.309149179670986</v>
+        <v>2.309149179670983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4841025015806696</v>
@@ -1049,7 +1049,7 @@
         <v>0.1815653277549284</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1246114951101697</v>
+        <v>0.1246114951101696</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.650955709578818</v>
+        <v>3.284874737032955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.14329413954345</v>
+        <v>-6.22950410258074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.346082766131716</v>
+        <v>-3.151617405806366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.842111256310593</v>
+        <v>-1.597378271962823</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1100745619941889</v>
+        <v>0.1316545668422185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1786459531029001</v>
+        <v>-0.1772606019302385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1030067219670345</v>
+        <v>-0.1293305298941518</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.08680553656805103</v>
+        <v>-0.07202521726751795</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.98380017692071</v>
+        <v>17.20154049153374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.438874719314736</v>
+        <v>8.073819656641097</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.23250041143906</v>
+        <v>9.70590215041415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.905484197966281</v>
+        <v>5.906276130328777</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9811242325801274</v>
+        <v>1.014719929515473</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3088748369291467</v>
+        <v>0.3108263846735346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5906062930944049</v>
+        <v>0.5663484258277609</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3706026604219826</v>
+        <v>0.359145861834207</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.041619186238417</v>
+        <v>1.757517133186939</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.271316286469204</v>
+        <v>-2.670943315643471</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.395675243856026</v>
+        <v>-3.780526973700213</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.737197488383281</v>
+        <v>-1.243832008502876</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05290570023959423</v>
+        <v>0.08248296984232989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1111842526740207</v>
+        <v>-0.130695769031745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1790248513353395</v>
+        <v>-0.1616383770214621</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05942509797937316</v>
+        <v>-0.08419780845922183</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.33947803692683</v>
+        <v>14.6573869976078</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.23234220870609</v>
+        <v>10.84244107482482</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.7902985370046</v>
+        <v>10.64339415473931</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.954131363220993</v>
+        <v>6.698412668756346</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.523887472599309</v>
+        <v>1.566820788349994</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8729698555510992</v>
+        <v>0.9010463748290836</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6913177172026982</v>
+        <v>0.7024852511823138</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6414528974388947</v>
+        <v>0.6132913960833583</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.434745724346341</v>
+        <v>-5.650889741507441</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.388090926658061</v>
+        <v>-7.126999314973814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.861689804833039</v>
+        <v>-4.591460996186603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.542697088939893</v>
+        <v>-3.732215060962593</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6444189409270588</v>
+        <v>-0.6708994625949639</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6010890220330113</v>
+        <v>-0.5859904722356016</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3686539670096403</v>
+        <v>-0.3669839105825788</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3551589173748735</v>
+        <v>-0.3592369979054822</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.092295225159392</v>
+        <v>4.793159660928778</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.722664952190587</v>
+        <v>3.428196365963586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.13314656195214</v>
+        <v>8.2896798336076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.718425296202528</v>
+        <v>3.088442022712904</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.597484552248108</v>
+        <v>1.813857461181493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7077511560016662</v>
+        <v>0.7273221489979185</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.208275468833994</v>
+        <v>1.176106079913159</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4233581606657094</v>
+        <v>0.4830422468337025</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.455200068826193</v>
+        <v>-2.518116135607582</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.510096056312682</v>
+        <v>-3.253878590191951</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.646289708293544</v>
+        <v>-3.595102304708115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.781248586850698</v>
+        <v>-2.692431892547195</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07389770873298646</v>
+        <v>-0.07489612922722605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1120170615302462</v>
+        <v>-0.1044930367898966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1264333585983227</v>
+        <v>-0.1237110630122797</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1352605265070166</v>
+        <v>-0.1341989116682828</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.697841898796507</v>
+        <v>2.868631519281818</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.357871714317097</v>
+        <v>1.350446549017565</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.163419546347709</v>
+        <v>1.273836460666417</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.021378246823736</v>
+        <v>1.118125045814277</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0891449087951158</v>
+        <v>0.09677956237575865</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04649652537681277</v>
+        <v>0.04653359991240334</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04378118002787219</v>
+        <v>0.04972027175170368</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.057917975014107</v>
+        <v>0.06251783230410818</v>
       </c>
     </row>
     <row r="28">
